--- a/outputs/pregunta2.xlsx
+++ b/outputs/pregunta2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="8415" activeTab="1"/>
+    <workbookView windowWidth="23310" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="parte1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,16 +93,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,13 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -132,7 +117,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +173,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,7 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,28 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +258,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +300,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,19 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,25 +366,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,43 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,43 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,16 +507,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -531,17 +531,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,22 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,13 +609,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,131 +630,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +764,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -776,9 +773,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -800,24 +794,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -827,18 +806,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -851,9 +821,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -869,108 +836,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,34 +851,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1373,126 +1232,126 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="b">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.97</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>0.98</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.97</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>1831973</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9" t="b">
+      <c r="I4" s="6"/>
+      <c r="J4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>0.99</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>0.8</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>0.89</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>1831973</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="13" t="b">
+      <c r="B5" s="6"/>
+      <c r="C5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0.76</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="4">
         <v>0.68</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>0.72</v>
       </c>
       <c r="G5" s="1">
         <v>190001</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13" t="b">
+      <c r="I5" s="6"/>
+      <c r="J5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>0.33</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="4">
         <v>0.93</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>0.48</v>
       </c>
       <c r="N5" s="1">
@@ -1502,63 +1361,63 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8">
         <v>0.95</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>2021974</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10">
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8">
         <v>0.81</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>2021974</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0.86</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="4">
         <v>0.83</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>0.84</v>
       </c>
       <c r="G7" s="1">
         <v>2021974</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>0.66</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="4">
         <v>0.87</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>0.69</v>
       </c>
       <c r="N7" s="1">
@@ -1568,285 +1427,285 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="8">
         <v>0.95</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="9">
         <v>0.95</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="8">
         <v>0.95</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="9">
         <v>2021974</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="8">
         <v>0.93</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="9">
         <v>0.81</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="8">
         <v>0.85</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="9">
         <v>2021974</v>
       </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="62"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="9" t="b">
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>0.98</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>0.95</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0.96</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="9">
         <v>1831973</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="9" t="b">
+      <c r="I10" s="17"/>
+      <c r="J10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="8">
         <v>0.99</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>0.79</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>0.88</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="9">
         <v>1831973</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="13" t="b">
+      <c r="B11" s="17"/>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.6</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="4">
         <v>0.77</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>0.68</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="4">
         <v>190001</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="13" t="b">
+      <c r="I11" s="17"/>
+      <c r="J11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <v>0.32</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="4">
         <v>0.96</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>0.48</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="4">
         <v>190001</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8">
         <v>0.93</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="9">
         <v>2021974</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10">
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8">
         <v>0.8</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="9">
         <v>2021974</v>
       </c>
-      <c r="O12" s="62"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>0.79</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="4">
         <v>0.86</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>0.82</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="4">
         <v>2021974</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="13" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>0.66</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="4">
         <v>0.87</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>0.68</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="4">
         <v>2021974</v>
       </c>
-      <c r="O13" s="62"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="20">
         <v>0.94</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="21">
         <v>0.93</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="20">
         <v>0.93</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="21">
         <v>2021974</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="20">
         <v>0.93</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="21">
         <v>0.8</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="20">
         <v>0.84</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="21">
         <v>2021974</v>
       </c>
-      <c r="O14" s="62"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -1856,71 +1715,71 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="9" t="b">
+      <c r="B16" s="22"/>
+      <c r="C16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>0.99</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>0.9</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>0.94</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>1831973</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="9" t="b">
+      <c r="I16" s="22"/>
+      <c r="J16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="8">
         <v>1</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>0.79</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="8">
         <v>0.88</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>1831973</v>
       </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="13" t="b">
+      <c r="B17" s="22"/>
+      <c r="C17" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>0.47</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="4">
         <v>0.88</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>0.61</v>
       </c>
       <c r="G17" s="1">
         <v>190001</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="13" t="b">
+      <c r="I17" s="22"/>
+      <c r="J17" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="12">
         <v>0.32</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="4">
         <v>0.96</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="12">
         <v>0.48</v>
       </c>
       <c r="N17" s="1">
@@ -1930,63 +1789,63 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8">
         <v>0.89</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>2021974</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="9" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10">
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8">
         <v>0.81</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <v>2021974</v>
       </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>0.73</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="4">
         <v>0.89</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>0.78</v>
       </c>
       <c r="G19" s="1">
         <v>2021974</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <v>0.66</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="4">
         <v>0.88</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="12">
         <v>0.68</v>
       </c>
       <c r="N19" s="1">
@@ -1996,37 +1855,37 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="8">
         <v>0.94</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>0.89</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="8">
         <v>0.9</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>2021974</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="9" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="8">
         <v>0.93</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <v>0.81</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="8">
         <v>0.84</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="10">
         <v>2021974</v>
       </c>
       <c r="O20" s="1"/>
@@ -2053,126 +1912,126 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="b">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>0.96</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>0.98</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>0.97</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>1831973</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9" t="b">
+      <c r="I24" s="6"/>
+      <c r="J24" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="8">
         <v>0.91</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="9">
         <v>1</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="8">
         <v>0.95</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="10">
         <v>1831973</v>
       </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="13" t="b">
+      <c r="B25" s="6"/>
+      <c r="C25" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>0.74</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="4">
         <v>0.59</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>0.65</v>
       </c>
       <c r="G25" s="1">
         <v>190001</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="13" t="b">
+      <c r="I25" s="6"/>
+      <c r="J25" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="12">
         <v>0</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="4">
         <v>0</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="12">
         <v>0</v>
       </c>
       <c r="N25" s="1">
@@ -2182,63 +2041,63 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10">
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8">
         <v>0.94</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>2021974</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10">
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8">
         <v>0.91</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="10">
         <v>2021974</v>
       </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>0.85</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="4">
         <v>0.78</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <v>0.81</v>
       </c>
       <c r="G27" s="1">
         <v>2021974</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="13" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="12">
         <v>0.45</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="4">
         <v>0.5</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="12">
         <v>0.48</v>
       </c>
       <c r="N27" s="1">
@@ -2248,289 +2107,289 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="8">
         <v>0.94</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="9">
         <v>0.94</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="8">
         <v>0.94</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="9">
         <v>2021974</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="8">
         <v>0.82</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="9">
         <v>0.91</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="8">
         <v>0.86</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="9">
         <v>2021974</v>
       </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="6" t="s">
+      <c r="J29" s="15"/>
+      <c r="K29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O29" s="62"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="9" t="b">
+      <c r="B30" s="17"/>
+      <c r="C30" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>0.98</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <v>0.89</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>0.93</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="9">
         <v>1831973</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="9" t="b">
+      <c r="I30" s="17"/>
+      <c r="J30" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K30" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="62"/>
+      <c r="K30" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="13" t="b">
+      <c r="B31" s="17"/>
+      <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>0.45</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="4">
         <v>0.86</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <v>0.59</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="4">
         <v>190001</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="13" t="b">
+      <c r="I31" s="17"/>
+      <c r="J31" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31" s="62"/>
+      <c r="K31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10">
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8">
         <v>0.89</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="9">
         <v>2021974</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="9" t="s">
+      <c r="I32" s="17"/>
+      <c r="J32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="62"/>
+      <c r="K32" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>0.72</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="4">
         <v>0.87</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>0.76</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="4">
         <v>2021974</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="13" t="s">
+      <c r="I33" s="17"/>
+      <c r="J33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="N33" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="O33" s="62"/>
+      <c r="K33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="20">
         <v>0.93</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="21">
         <v>0.89</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="20">
         <v>0.9</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="21">
         <v>2021974</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29" t="s">
+      <c r="I34" s="18"/>
+      <c r="J34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" s="62"/>
+      <c r="K34" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14" t="s">
+      <c r="J35" s="11"/>
+      <c r="K35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="12" t="s">
         <v>5</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -2540,181 +2399,181 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="9" t="b">
+      <c r="B36" s="22"/>
+      <c r="C36" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>0.99</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="9">
         <v>0.8</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <v>0.88</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>1831973</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="9" t="b">
+      <c r="I36" s="22"/>
+      <c r="J36" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K36" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36" s="82" t="s">
+      <c r="K36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="36" t="s">
         <v>14</v>
       </c>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="13" t="b">
+      <c r="B37" s="22"/>
+      <c r="C37" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>0.32</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="4">
         <v>0.92</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <v>0.47</v>
       </c>
       <c r="G37" s="1">
         <v>190001</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="13" t="b">
+      <c r="I37" s="22"/>
+      <c r="J37" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K37" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="N37" s="83" t="s">
+      <c r="K37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="37" t="s">
         <v>14</v>
       </c>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10">
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8">
         <v>0.81</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>2021974</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="9" t="s">
+      <c r="I38" s="22"/>
+      <c r="J38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38" s="82" t="s">
+      <c r="K38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="36" t="s">
         <v>14</v>
       </c>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>0.65</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="4">
         <v>0.86</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="12">
         <v>0.68</v>
       </c>
       <c r="G39" s="1">
         <v>2021974</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="13" t="s">
+      <c r="I39" s="22"/>
+      <c r="J39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39" s="83" t="s">
+      <c r="K39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="37" t="s">
         <v>14</v>
       </c>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="8">
         <v>0.93</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="9">
         <v>0.81</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="8">
         <v>0.85</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>2021974</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="9" t="s">
+      <c r="I40" s="22"/>
+      <c r="J40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" s="82" t="s">
+      <c r="K40" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="36" t="s">
         <v>14</v>
       </c>
       <c r="O40" s="1"/>
@@ -2723,17 +2582,17 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="1"/>
     </row>
   </sheetData>
@@ -2755,6 +2614,18 @@
     <mergeCell ref="I29:I34"/>
     <mergeCell ref="I35:I40"/>
   </mergeCells>
+  <conditionalFormatting sqref="D5:F5 K5:M5 K11:M11 D11:F11 D17:F17 K17:M17 D25:F25 K25:M25 D37:F37 D31:F31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
@@ -2766,8 +2637,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2808,126 +2679,126 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="b">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.97</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>0.99</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.98</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>552354</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9" t="b">
+      <c r="I4" s="6"/>
+      <c r="J4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>0.99</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>0.8</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>0.89</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>552354</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="13" t="b">
+      <c r="B5" s="6"/>
+      <c r="C5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0.85</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="4">
         <v>0.75</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>0.8</v>
       </c>
       <c r="G5" s="1">
         <v>57287</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13" t="b">
+      <c r="I5" s="6"/>
+      <c r="J5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>0.33</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="4">
         <v>0.95</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>0.49</v>
       </c>
       <c r="N5" s="1">
@@ -2937,63 +2808,63 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8">
         <v>0.96</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>609641</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10">
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8">
         <v>0.81</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>609641</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0.91</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="4">
         <v>0.87</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>0.89</v>
       </c>
       <c r="G7" s="1">
         <v>609641</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>0.66</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="4">
         <v>0.87</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>0.69</v>
       </c>
       <c r="N7" s="1">
@@ -3003,285 +2874,285 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="8">
         <v>0.96</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="9">
         <v>0.96</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="8">
         <v>0.96</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="9">
         <v>609641</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="8">
         <v>0.93</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="9">
         <v>0.81</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="8">
         <v>0.85</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="9">
         <v>609641</v>
       </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="62"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="9" t="b">
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>0.99</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>0.92</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0.96</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="9">
         <v>552354</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="9" t="b">
+      <c r="I10" s="17"/>
+      <c r="J10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="8">
         <v>0.99</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>0.79</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>0.88</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="9">
         <v>552354</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="13" t="b">
+      <c r="B11" s="17"/>
+      <c r="C11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.55</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="4">
         <v>0.95</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>0.7</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="4">
         <v>57287</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="13" t="b">
+      <c r="I11" s="17"/>
+      <c r="J11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <v>0.32</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="4">
         <v>0.96</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>0.48</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="4">
         <v>57287</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8">
         <v>0.92</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="9">
         <v>609641</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10">
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8">
         <v>0.8</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="9">
         <v>609641</v>
       </c>
-      <c r="O12" s="62"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>0.77</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="4">
         <v>0.94</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>0.83</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="4">
         <v>609641</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="13" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>0.66</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="4">
         <v>0.87</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>0.68</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="4">
         <v>609641</v>
       </c>
-      <c r="O13" s="62"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="20">
         <v>0.95</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="21">
         <v>0.92</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="20">
         <v>0.93</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="21">
         <v>609641</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="20">
         <v>0.93</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="21">
         <v>0.8</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="20">
         <v>0.84</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="21">
         <v>609641</v>
       </c>
-      <c r="O14" s="62"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -3291,71 +3162,71 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="9" t="b">
+      <c r="B16" s="22"/>
+      <c r="C16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>0.99</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>0.92</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>0.96</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>552354</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="9" t="b">
+      <c r="I16" s="22"/>
+      <c r="J16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="8">
         <v>0.99</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>0.79</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="8">
         <v>0.88</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>552354</v>
       </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="13" t="b">
+      <c r="B17" s="22"/>
+      <c r="C17" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>0.55</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="4">
         <v>0.95</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>0.7</v>
       </c>
       <c r="G17" s="1">
         <v>57287</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="13" t="b">
+      <c r="I17" s="22"/>
+      <c r="J17" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="12">
         <v>0.32</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="4">
         <v>0.96</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="12">
         <v>0.48</v>
       </c>
       <c r="N17" s="1">
@@ -3365,63 +3236,63 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8">
         <v>0.92</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>609641</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="9" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10">
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8">
         <v>0.8</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <v>609641</v>
       </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>0.77</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="4">
         <v>0.93</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>0.83</v>
       </c>
       <c r="G19" s="1">
         <v>609641</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <v>0.66</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="4">
         <v>0.87</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="12">
         <v>0.68</v>
       </c>
       <c r="N19" s="1">
@@ -3431,37 +3302,37 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="8">
         <v>0.95</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>0.92</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="8">
         <v>0.93</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>609641</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="9" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="8">
         <v>0.93</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <v>0.8</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="8">
         <v>0.84</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="10">
         <v>609641</v>
       </c>
       <c r="O20" s="1"/>
@@ -3484,344 +3355,344 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="34"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="34"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="34"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="34"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="34"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="34"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="34"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="34"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="34"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="23"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="34"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="23"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="34"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="34"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="34"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="34"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="34"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="34"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="34"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="23"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="34"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="34"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="34"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="34"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="34"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="23"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="34"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="34"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="23"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3842,6 +3713,18 @@
     <mergeCell ref="I29:I34"/>
     <mergeCell ref="I35:I40"/>
   </mergeCells>
+  <conditionalFormatting sqref="D5:F5 D11:F11 D17:F17 K5:M5 K11:M11 K17:M17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
